--- a/biology/Écologie/R._J._Berry/R._J._Berry.xlsx
+++ b/biology/Écologie/R._J._Berry/R._J._Berry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert James "Sam" Berry (26 octobre 1934 - 29 mars 2018[1],[2]) est un généticien, naturaliste et théoricien chrétien britannique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert James "Sam" Berry (26 octobre 1934 - 29 mars 2018,) est un généticien, naturaliste et théoricien chrétien britannique. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur de génétique à l'University College de Londres de 1974 à 2000 et a présidé la Linnean Society, la British Ecological Society et la Fédération européenne d'écologie. En tant que chrétien, Berry s'est prononcé en faveur de l'évolution théiste. Il est membre laïque du Synode général de l'Église d'Angleterre et président de Christians in Science. En 1997-98, il donne à Glasgow des conférences dans le cadre des Gifford Lectures, initiées en 1887 par Adam Gifford (en), sous le titre : Gods, Genes, Greens and Everything.
 R.J. Berry est l'un plus importants contributeurs à la collection naturaliste britannique : The New naturalist, puisqu'il en a rédigé quatre volumes, consacrés respectivement à l'hérédité, aux Shetland, aux Orcades et, de façon générale, aux îles.
